--- a/Mcap2020/Data/NCBI Upload/SRA_metadata_acc_16S.xlsx
+++ b/Mcap2020/Data/NCBI Upload/SRA_metadata_acc_16S.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianasnowhuffmyer/MyProjects/EarlyLifeHistory_Energetics/Mcap2020/Data/NCBI Upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8680EEE0-D9F8-7E47-8277-6CC9E1BE6947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B274C465-9FCA-FD47-8C30-ECA08529CA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-63380" yWindow="500" windowWidth="21880" windowHeight="13700" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -278,7 +278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="459">
   <si>
     <t>filename</t>
   </si>
@@ -1686,6 +1686,123 @@
   </si>
   <si>
     <t>16S libraries prepared by the Putnam Lab and sequenced at the RI-INBRE Molecular Informatics Core at the University of Rhode Island</t>
+  </si>
+  <si>
+    <t>SAMN31685106 </t>
+  </si>
+  <si>
+    <t>SAMN31685107 </t>
+  </si>
+  <si>
+    <t>SAMN31685108 </t>
+  </si>
+  <si>
+    <t>SAMN31685109 </t>
+  </si>
+  <si>
+    <t>SAMN31685110 </t>
+  </si>
+  <si>
+    <t>SAMN31685111 </t>
+  </si>
+  <si>
+    <t>SAMN31685112 </t>
+  </si>
+  <si>
+    <t>SAMN31685113 </t>
+  </si>
+  <si>
+    <t>SAMN31685114 </t>
+  </si>
+  <si>
+    <t>SAMN31685115 </t>
+  </si>
+  <si>
+    <t>SAMN31685116 </t>
+  </si>
+  <si>
+    <t>SAMN31685117 </t>
+  </si>
+  <si>
+    <t>SAMN31685118 </t>
+  </si>
+  <si>
+    <t>SAMN31685119 </t>
+  </si>
+  <si>
+    <t>SAMN31685120 </t>
+  </si>
+  <si>
+    <t>SAMN31685121 </t>
+  </si>
+  <si>
+    <t>SAMN31685122 </t>
+  </si>
+  <si>
+    <t>SAMN31685123 </t>
+  </si>
+  <si>
+    <t>SAMN31685124 </t>
+  </si>
+  <si>
+    <t>SAMN31685125 </t>
+  </si>
+  <si>
+    <t>SAMN31685126 </t>
+  </si>
+  <si>
+    <t>SAMN31685127 </t>
+  </si>
+  <si>
+    <t>SAMN31685128 </t>
+  </si>
+  <si>
+    <t>SAMN31685129 </t>
+  </si>
+  <si>
+    <t>SAMN31685130 </t>
+  </si>
+  <si>
+    <t>SAMN31685131 </t>
+  </si>
+  <si>
+    <t>SAMN31685132 </t>
+  </si>
+  <si>
+    <t>SAMN31685133 </t>
+  </si>
+  <si>
+    <t>SAMN31685134 </t>
+  </si>
+  <si>
+    <t>SAMN31685135 </t>
+  </si>
+  <si>
+    <t>SAMN31685136 </t>
+  </si>
+  <si>
+    <t>SAMN31685137 </t>
+  </si>
+  <si>
+    <t>SAMN31685138 </t>
+  </si>
+  <si>
+    <t>SAMN31685139 </t>
+  </si>
+  <si>
+    <t>SAMN31685140 </t>
+  </si>
+  <si>
+    <t>SAMN31685141 </t>
+  </si>
+  <si>
+    <t>SAMN31685142 </t>
+  </si>
+  <si>
+    <t>SAMN31685143 </t>
+  </si>
+  <si>
+    <t>SAMN31685144 </t>
   </si>
 </sst>
 </file>
@@ -1799,11 +1916,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
@@ -1907,6 +2019,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2130,25 +2248,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2166,17 +2283,18 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="62"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="62" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="62" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2187,13 +2305,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2715,18 +2833,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="63.6640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="63.6640625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" style="17" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" style="15" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" style="15"/>
-    <col min="7" max="16384" width="8.6640625" style="18"/>
+    <col min="7" max="16384" width="8.6640625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2779,59 +2897,59 @@
       <c r="L6" s="41"/>
     </row>
     <row r="7" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>192</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="2:12" ht="36" x14ac:dyDescent="0.15">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="90" x14ac:dyDescent="0.15">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="108" x14ac:dyDescent="0.15">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="36" x14ac:dyDescent="0.15">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="23" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="17" x14ac:dyDescent="0.15">
-      <c r="B13" s="24"/>
+      <c r="B13" s="23"/>
     </row>
     <row r="14" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="18" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2862,18 +2980,18 @@
     <row r="31" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="32" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="17" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="20" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="17" t="s">
         <v>170</v>
       </c>
       <c r="C37" s="38" t="s">
@@ -2886,7 +3004,7 @@
       <c r="H37" s="39"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="17" t="s">
         <v>204</v>
       </c>
       <c r="C38" s="38" t="s">
@@ -2899,46 +3017,46 @@
       <c r="H38" s="39"/>
     </row>
     <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="21" t="s">
         <v>192</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
       <c r="G41" s="7"/>
     </row>
     <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="A45" s="25"/>
-      <c r="B45" s="24"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="23"/>
     </row>
     <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="A46" s="25"/>
-      <c r="B46" s="24"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="23"/>
     </row>
     <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="A47" s="25"/>
-      <c r="B47" s="24"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="23"/>
     </row>
     <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="A48" s="25"/>
-      <c r="B48" s="24"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="23"/>
     </row>
     <row r="49" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A49" s="25"/>
-      <c r="B49" s="24"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="23"/>
     </row>
     <row r="50" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A50" s="25"/>
-      <c r="B50" s="24"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="23"/>
     </row>
     <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A51" s="25"/>
-      <c r="B51" s="24"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="23"/>
     </row>
     <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A52" s="25"/>
-      <c r="B52" s="24"/>
+      <c r="A52" s="24"/>
+      <c r="B52" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2967,9 +3085,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3038,16 +3156,18 @@
       <c r="O1" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="Q1" s="25" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="47" t="s">
+      <c r="A2" s="47" t="s">
+        <v>420</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>301</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -3077,15 +3197,18 @@
       <c r="K2" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="36" t="s">
         <v>340</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="M2" s="36" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B3" s="47" t="s">
+      <c r="A3" s="47" t="s">
+        <v>421</v>
+      </c>
+      <c r="B3" s="37" t="s">
         <v>302</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -3115,15 +3238,18 @@
       <c r="K3" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="36" t="s">
         <v>342</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="36" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B4" s="47" t="s">
+      <c r="A4" s="47" t="s">
+        <v>422</v>
+      </c>
+      <c r="B4" s="37" t="s">
         <v>303</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -3153,15 +3279,18 @@
       <c r="K4" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L4" s="37" t="s">
+      <c r="L4" s="36" t="s">
         <v>344</v>
       </c>
-      <c r="M4" s="37" t="s">
+      <c r="M4" s="36" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B5" s="47" t="s">
+      <c r="A5" s="47" t="s">
+        <v>423</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>304</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -3191,15 +3320,18 @@
       <c r="K5" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="36" t="s">
         <v>346</v>
       </c>
-      <c r="M5" s="37" t="s">
+      <c r="M5" s="36" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B6" s="47" t="s">
+      <c r="A6" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="B6" s="37" t="s">
         <v>305</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -3229,15 +3361,18 @@
       <c r="K6" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L6" s="37" t="s">
+      <c r="L6" s="36" t="s">
         <v>348</v>
       </c>
-      <c r="M6" s="37" t="s">
+      <c r="M6" s="36" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B7" s="47" t="s">
+      <c r="A7" s="47" t="s">
+        <v>425</v>
+      </c>
+      <c r="B7" s="37" t="s">
         <v>306</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -3267,15 +3402,18 @@
       <c r="K7" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L7" s="37" t="s">
+      <c r="L7" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="M7" s="37" t="s">
+      <c r="M7" s="36" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B8" s="47" t="s">
+      <c r="A8" s="47" t="s">
+        <v>426</v>
+      </c>
+      <c r="B8" s="37" t="s">
         <v>307</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -3305,15 +3443,18 @@
       <c r="K8" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L8" s="37" t="s">
+      <c r="L8" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="M8" s="37" t="s">
+      <c r="M8" s="36" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B9" s="47" t="s">
+      <c r="A9" s="47" t="s">
+        <v>427</v>
+      </c>
+      <c r="B9" s="37" t="s">
         <v>308</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -3343,15 +3484,18 @@
       <c r="K9" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L9" s="37" t="s">
+      <c r="L9" s="36" t="s">
         <v>354</v>
       </c>
-      <c r="M9" s="37" t="s">
+      <c r="M9" s="36" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B10" s="47" t="s">
+      <c r="A10" s="47" t="s">
+        <v>428</v>
+      </c>
+      <c r="B10" s="37" t="s">
         <v>309</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -3381,15 +3525,18 @@
       <c r="K10" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L10" s="37" t="s">
+      <c r="L10" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="M10" s="37" t="s">
+      <c r="M10" s="36" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B11" s="47" t="s">
+      <c r="A11" s="47" t="s">
+        <v>429</v>
+      </c>
+      <c r="B11" s="37" t="s">
         <v>310</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -3419,15 +3566,18 @@
       <c r="K11" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L11" s="37" t="s">
+      <c r="L11" s="36" t="s">
         <v>358</v>
       </c>
-      <c r="M11" s="37" t="s">
+      <c r="M11" s="36" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B12" s="47" t="s">
+      <c r="A12" s="47" t="s">
+        <v>430</v>
+      </c>
+      <c r="B12" s="37" t="s">
         <v>311</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -3457,15 +3607,18 @@
       <c r="K12" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L12" s="37" t="s">
+      <c r="L12" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="M12" s="37" t="s">
+      <c r="M12" s="36" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B13" s="47" t="s">
+      <c r="A13" s="47" t="s">
+        <v>431</v>
+      </c>
+      <c r="B13" s="37" t="s">
         <v>312</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -3495,15 +3648,18 @@
       <c r="K13" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L13" s="37" t="s">
+      <c r="L13" s="36" t="s">
         <v>362</v>
       </c>
-      <c r="M13" s="37" t="s">
+      <c r="M13" s="36" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B14" s="47" t="s">
+      <c r="A14" s="47" t="s">
+        <v>432</v>
+      </c>
+      <c r="B14" s="37" t="s">
         <v>313</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -3533,15 +3689,18 @@
       <c r="K14" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L14" s="37" t="s">
+      <c r="L14" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="M14" s="37" t="s">
+      <c r="M14" s="36" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="47" t="s">
+      <c r="A15" s="47" t="s">
+        <v>433</v>
+      </c>
+      <c r="B15" s="37" t="s">
         <v>314</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -3571,15 +3730,18 @@
       <c r="K15" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L15" s="37" t="s">
+      <c r="L15" s="36" t="s">
         <v>366</v>
       </c>
-      <c r="M15" s="37" t="s">
+      <c r="M15" s="36" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B16" s="47" t="s">
+      <c r="A16" s="47" t="s">
+        <v>434</v>
+      </c>
+      <c r="B16" s="37" t="s">
         <v>315</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -3609,15 +3771,18 @@
       <c r="K16" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L16" s="37" t="s">
+      <c r="L16" s="36" t="s">
         <v>368</v>
       </c>
-      <c r="M16" s="37" t="s">
+      <c r="M16" s="36" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17" s="47" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="47" t="s">
+        <v>435</v>
+      </c>
+      <c r="B17" s="37" t="s">
         <v>316</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -3647,15 +3812,18 @@
       <c r="K17" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L17" s="37" t="s">
+      <c r="L17" s="36" t="s">
         <v>370</v>
       </c>
-      <c r="M17" s="37" t="s">
+      <c r="M17" s="36" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18" s="47" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="47" t="s">
+        <v>436</v>
+      </c>
+      <c r="B18" s="37" t="s">
         <v>317</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -3685,15 +3853,18 @@
       <c r="K18" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L18" s="37" t="s">
+      <c r="L18" s="36" t="s">
         <v>372</v>
       </c>
-      <c r="M18" s="37" t="s">
+      <c r="M18" s="36" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="47" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="47" t="s">
+        <v>437</v>
+      </c>
+      <c r="B19" s="37" t="s">
         <v>318</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -3723,15 +3894,18 @@
       <c r="K19" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L19" s="37" t="s">
+      <c r="L19" s="36" t="s">
         <v>374</v>
       </c>
-      <c r="M19" s="37" t="s">
+      <c r="M19" s="36" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20" s="47" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="47" t="s">
+        <v>438</v>
+      </c>
+      <c r="B20" s="37" t="s">
         <v>319</v>
       </c>
       <c r="C20" s="9" t="s">
@@ -3761,15 +3935,18 @@
       <c r="K20" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L20" s="37" t="s">
+      <c r="L20" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="M20" s="37" t="s">
+      <c r="M20" s="36" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21" s="47" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="47" t="s">
+        <v>439</v>
+      </c>
+      <c r="B21" s="37" t="s">
         <v>320</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -3799,15 +3976,18 @@
       <c r="K21" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L21" s="37" t="s">
+      <c r="L21" s="36" t="s">
         <v>378</v>
       </c>
-      <c r="M21" s="37" t="s">
+      <c r="M21" s="36" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="47" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="47" t="s">
+        <v>440</v>
+      </c>
+      <c r="B22" s="37" t="s">
         <v>321</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -3837,15 +4017,18 @@
       <c r="K22" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L22" s="37" t="s">
+      <c r="L22" s="36" t="s">
         <v>380</v>
       </c>
-      <c r="M22" s="37" t="s">
+      <c r="M22" s="36" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="47" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="47" t="s">
+        <v>441</v>
+      </c>
+      <c r="B23" s="37" t="s">
         <v>322</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -3875,15 +4058,18 @@
       <c r="K23" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L23" s="37" t="s">
+      <c r="L23" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="M23" s="37" t="s">
+      <c r="M23" s="36" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24" s="47" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="47" t="s">
+        <v>442</v>
+      </c>
+      <c r="B24" s="37" t="s">
         <v>323</v>
       </c>
       <c r="C24" s="9" t="s">
@@ -3913,15 +4099,18 @@
       <c r="K24" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L24" s="37" t="s">
+      <c r="L24" s="36" t="s">
         <v>384</v>
       </c>
-      <c r="M24" s="37" t="s">
+      <c r="M24" s="36" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25" s="47" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="47" t="s">
+        <v>443</v>
+      </c>
+      <c r="B25" s="37" t="s">
         <v>324</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -3951,15 +4140,18 @@
       <c r="K25" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L25" s="37" t="s">
+      <c r="L25" s="36" t="s">
         <v>386</v>
       </c>
-      <c r="M25" s="37" t="s">
+      <c r="M25" s="36" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="47" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="47" t="s">
+        <v>444</v>
+      </c>
+      <c r="B26" s="37" t="s">
         <v>325</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -3989,15 +4181,18 @@
       <c r="K26" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L26" s="37" t="s">
+      <c r="L26" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="M26" s="37" t="s">
+      <c r="M26" s="36" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27" s="47" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="47" t="s">
+        <v>445</v>
+      </c>
+      <c r="B27" s="37" t="s">
         <v>326</v>
       </c>
       <c r="C27" s="9" t="s">
@@ -4027,15 +4222,18 @@
       <c r="K27" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L27" s="37" t="s">
+      <c r="L27" s="36" t="s">
         <v>390</v>
       </c>
-      <c r="M27" s="37" t="s">
+      <c r="M27" s="36" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28" s="47" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="47" t="s">
+        <v>446</v>
+      </c>
+      <c r="B28" s="37" t="s">
         <v>327</v>
       </c>
       <c r="C28" s="9" t="s">
@@ -4065,15 +4263,18 @@
       <c r="K28" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L28" s="37" t="s">
+      <c r="L28" s="36" t="s">
         <v>392</v>
       </c>
-      <c r="M28" s="37" t="s">
+      <c r="M28" s="36" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29" s="47" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="47" t="s">
+        <v>447</v>
+      </c>
+      <c r="B29" s="37" t="s">
         <v>328</v>
       </c>
       <c r="C29" s="9" t="s">
@@ -4103,15 +4304,18 @@
       <c r="K29" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L29" s="37" t="s">
+      <c r="L29" s="36" t="s">
         <v>394</v>
       </c>
-      <c r="M29" s="37" t="s">
+      <c r="M29" s="36" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30" s="47" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="47" t="s">
+        <v>448</v>
+      </c>
+      <c r="B30" s="37" t="s">
         <v>329</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -4141,15 +4345,18 @@
       <c r="K30" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L30" s="37" t="s">
+      <c r="L30" s="36" t="s">
         <v>396</v>
       </c>
-      <c r="M30" s="37" t="s">
+      <c r="M30" s="36" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B31" s="47" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="47" t="s">
+        <v>449</v>
+      </c>
+      <c r="B31" s="37" t="s">
         <v>330</v>
       </c>
       <c r="C31" s="9" t="s">
@@ -4179,15 +4386,18 @@
       <c r="K31" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L31" s="37" t="s">
+      <c r="L31" s="36" t="s">
         <v>398</v>
       </c>
-      <c r="M31" s="37" t="s">
+      <c r="M31" s="36" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32" s="47" t="s">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="47" t="s">
+        <v>450</v>
+      </c>
+      <c r="B32" s="37" t="s">
         <v>331</v>
       </c>
       <c r="C32" s="9" t="s">
@@ -4217,15 +4427,18 @@
       <c r="K32" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L32" s="37" t="s">
+      <c r="L32" s="36" t="s">
         <v>400</v>
       </c>
-      <c r="M32" s="37" t="s">
+      <c r="M32" s="36" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B33" s="47" t="s">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="47" t="s">
+        <v>451</v>
+      </c>
+      <c r="B33" s="37" t="s">
         <v>332</v>
       </c>
       <c r="C33" s="9" t="s">
@@ -4255,15 +4468,18 @@
       <c r="K33" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L33" s="37" t="s">
+      <c r="L33" s="36" t="s">
         <v>402</v>
       </c>
-      <c r="M33" s="37" t="s">
+      <c r="M33" s="36" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B34" s="47" t="s">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="47" t="s">
+        <v>452</v>
+      </c>
+      <c r="B34" s="37" t="s">
         <v>333</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -4293,15 +4509,18 @@
       <c r="K34" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L34" s="37" t="s">
+      <c r="L34" s="36" t="s">
         <v>404</v>
       </c>
-      <c r="M34" s="37" t="s">
+      <c r="M34" s="36" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B35" s="47" t="s">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="47" t="s">
+        <v>453</v>
+      </c>
+      <c r="B35" s="37" t="s">
         <v>334</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -4331,15 +4550,18 @@
       <c r="K35" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L35" s="37" t="s">
+      <c r="L35" s="36" t="s">
         <v>406</v>
       </c>
-      <c r="M35" s="37" t="s">
+      <c r="M35" s="36" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B36" s="47" t="s">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="47" t="s">
+        <v>454</v>
+      </c>
+      <c r="B36" s="37" t="s">
         <v>335</v>
       </c>
       <c r="C36" s="9" t="s">
@@ -4369,15 +4591,18 @@
       <c r="K36" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L36" s="37" t="s">
+      <c r="L36" s="36" t="s">
         <v>408</v>
       </c>
-      <c r="M36" s="37" t="s">
+      <c r="M36" s="36" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B37" s="47" t="s">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="47" t="s">
+        <v>455</v>
+      </c>
+      <c r="B37" s="37" t="s">
         <v>336</v>
       </c>
       <c r="C37" s="9" t="s">
@@ -4407,15 +4632,18 @@
       <c r="K37" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L37" s="37" t="s">
+      <c r="L37" s="36" t="s">
         <v>410</v>
       </c>
-      <c r="M37" s="37" t="s">
+      <c r="M37" s="36" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B38" s="47" t="s">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="47" t="s">
+        <v>456</v>
+      </c>
+      <c r="B38" s="37" t="s">
         <v>337</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -4445,15 +4673,18 @@
       <c r="K38" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L38" s="37" t="s">
+      <c r="L38" s="36" t="s">
         <v>412</v>
       </c>
-      <c r="M38" s="37" t="s">
+      <c r="M38" s="36" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B39" s="47" t="s">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="47" t="s">
+        <v>457</v>
+      </c>
+      <c r="B39" s="37" t="s">
         <v>338</v>
       </c>
       <c r="C39" s="9" t="s">
@@ -4483,15 +4714,18 @@
       <c r="K39" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L39" s="37" t="s">
+      <c r="L39" s="36" t="s">
         <v>414</v>
       </c>
-      <c r="M39" s="37" t="s">
+      <c r="M39" s="36" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B40" s="47" t="s">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="47" t="s">
+        <v>458</v>
+      </c>
+      <c r="B40" s="37" t="s">
         <v>339</v>
       </c>
       <c r="C40" s="9" t="s">
@@ -4521,14 +4755,14 @@
       <c r="K40" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L40" s="37" t="s">
+      <c r="L40" s="36" t="s">
         <v>416</v>
       </c>
-      <c r="M40" s="37" t="s">
+      <c r="M40" s="36" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
@@ -4537,7 +4771,7 @@
       <c r="I41" s="11"/>
       <c r="K41" s="11"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
@@ -4546,7 +4780,7 @@
       <c r="I42" s="11"/>
       <c r="K42" s="11"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
@@ -4555,7 +4789,7 @@
       <c r="I43" s="11"/>
       <c r="K43" s="11"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
@@ -4564,7 +4798,7 @@
       <c r="I44" s="11"/>
       <c r="K44" s="11"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
@@ -4573,7 +4807,7 @@
       <c r="I45" s="11"/>
       <c r="K45" s="11"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
@@ -4582,7 +4816,7 @@
       <c r="I46" s="11"/>
       <c r="K46" s="11"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
@@ -4591,7 +4825,7 @@
       <c r="I47" s="11"/>
       <c r="K47" s="11"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
@@ -6792,9 +7026,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="30" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" style="30" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" style="29" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="21.1640625" style="2" customWidth="1"/>
@@ -6813,8 +7047,8 @@
       <c r="A2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -6823,7 +7057,7 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -6832,7 +7066,7 @@
       <c r="C3" s="43"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="43" t="s">
@@ -6841,7 +7075,7 @@
       <c r="C4" s="43"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="43" t="s">
@@ -6850,7 +7084,7 @@
       <c r="C5" s="43"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="43" t="s">
@@ -6859,7 +7093,7 @@
       <c r="C6" s="43"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="43" t="s">
@@ -6868,7 +7102,7 @@
       <c r="C7" s="43"/>
     </row>
     <row r="8" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="43" t="s">
@@ -6877,7 +7111,7 @@
       <c r="C8" s="43"/>
     </row>
     <row r="9" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="43" t="s">
@@ -6886,7 +7120,7 @@
       <c r="C9" s="43"/>
     </row>
     <row r="10" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="43" t="s">
@@ -6895,7 +7129,7 @@
       <c r="C10" s="43"/>
     </row>
     <row r="11" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="28" t="s">
         <v>48</v>
       </c>
       <c r="B11" s="43" t="s">
@@ -6904,7 +7138,7 @@
       <c r="C11" s="43"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="28" t="s">
         <v>49</v>
       </c>
       <c r="B12" s="43" t="s">
@@ -6913,7 +7147,7 @@
       <c r="C12" s="43"/>
     </row>
     <row r="13" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="28" t="s">
         <v>50</v>
       </c>
       <c r="B13" s="43" t="s">
@@ -6922,7 +7156,7 @@
       <c r="C13" s="43"/>
     </row>
     <row r="14" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="28" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="43" t="s">
@@ -6931,7 +7165,7 @@
       <c r="C14" s="43"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="28" t="s">
         <v>52</v>
       </c>
       <c r="B15" s="43" t="s">
@@ -6940,7 +7174,7 @@
       <c r="C15" s="43"/>
     </row>
     <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="28" t="s">
         <v>53</v>
       </c>
       <c r="B16" s="43" t="s">
@@ -6949,7 +7183,7 @@
       <c r="C16" s="43"/>
     </row>
     <row r="17" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="28" t="s">
         <v>54</v>
       </c>
       <c r="B17" s="43" t="s">
@@ -6958,7 +7192,7 @@
       <c r="C17" s="43"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="28" t="s">
         <v>55</v>
       </c>
       <c r="B18" s="43" t="s">
@@ -6967,7 +7201,7 @@
       <c r="C18" s="43"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="28" t="s">
         <v>56</v>
       </c>
       <c r="B19" s="43" t="s">
@@ -6976,7 +7210,7 @@
       <c r="C19" s="43"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="28" t="s">
         <v>57</v>
       </c>
       <c r="B20" s="43" t="s">
@@ -6985,7 +7219,7 @@
       <c r="C20" s="43"/>
     </row>
     <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="28" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="43" t="s">
@@ -7000,7 +7234,7 @@
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="28" t="s">
         <v>59</v>
       </c>
       <c r="B22" s="43" t="s">
@@ -7009,7 +7243,7 @@
       <c r="C22" s="43"/>
     </row>
     <row r="23" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="28" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="43" t="s">
@@ -7018,7 +7252,7 @@
       <c r="C23" s="43"/>
     </row>
     <row r="24" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="28" t="s">
         <v>61</v>
       </c>
       <c r="B24" s="43" t="s">
@@ -7125,7 +7359,7 @@
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="28" t="s">
         <v>62</v>
       </c>
       <c r="B37" s="43" t="s">
@@ -7141,11 +7375,11 @@
       <c r="A39" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="46"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="45"/>
     </row>
     <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="28" t="s">
         <v>63</v>
       </c>
       <c r="B40" s="43" t="s">
@@ -7154,7 +7388,7 @@
       <c r="C40" s="43"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="28" t="s">
         <v>64</v>
       </c>
       <c r="B41" s="43" t="s">
@@ -7163,7 +7397,7 @@
       <c r="C41" s="43"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="28" t="s">
         <v>65</v>
       </c>
       <c r="B42" s="43" t="s">
@@ -7172,7 +7406,7 @@
       <c r="C42" s="43"/>
     </row>
     <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="28" t="s">
         <v>66</v>
       </c>
       <c r="B43" s="43" t="s">
@@ -7181,7 +7415,7 @@
       <c r="C43" s="43"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="28" t="s">
         <v>67</v>
       </c>
       <c r="B44" s="43" t="s">
@@ -7190,7 +7424,7 @@
       <c r="C44" s="43"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="28" t="s">
         <v>68</v>
       </c>
       <c r="B45" s="43" t="s">
@@ -7209,7 +7443,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="28" t="s">
         <v>62</v>
       </c>
       <c r="B48" s="43" t="s">
@@ -7225,11 +7459,11 @@
       <c r="A50" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="44"/>
+      <c r="B50" s="46"/>
       <c r="C50" s="43"/>
     </row>
     <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="28" t="s">
         <v>69</v>
       </c>
       <c r="B51" s="43" t="s">
@@ -7238,7 +7472,7 @@
       <c r="C51" s="43"/>
     </row>
     <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="29" t="s">
+      <c r="A52" s="28" t="s">
         <v>70</v>
       </c>
       <c r="B52" s="43" t="s">
@@ -7247,7 +7481,7 @@
       <c r="C52" s="43"/>
     </row>
     <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="28" t="s">
         <v>71</v>
       </c>
       <c r="B53" s="43" t="s">
@@ -7256,7 +7490,7 @@
       <c r="C53" s="43"/>
     </row>
     <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="29" t="s">
+      <c r="A54" s="28" t="s">
         <v>72</v>
       </c>
       <c r="B54" s="43" t="s">
@@ -7265,7 +7499,7 @@
       <c r="C54" s="43"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="28" t="s">
         <v>73</v>
       </c>
       <c r="B55" s="43" t="s">
@@ -7274,7 +7508,7 @@
       <c r="C55" s="43"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="28" t="s">
         <v>74</v>
       </c>
       <c r="B56" s="43" t="s">
@@ -7283,7 +7517,7 @@
       <c r="C56" s="43"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A57" s="29" t="s">
+      <c r="A57" s="28" t="s">
         <v>75</v>
       </c>
       <c r="B57" s="43" t="s">
@@ -7292,7 +7526,7 @@
       <c r="C57" s="43"/>
     </row>
     <row r="58" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="29" t="s">
+      <c r="A58" s="28" t="s">
         <v>76</v>
       </c>
       <c r="B58" s="43" t="s">
@@ -7301,7 +7535,7 @@
       <c r="C58" s="43"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A59" s="29" t="s">
+      <c r="A59" s="28" t="s">
         <v>77</v>
       </c>
       <c r="B59" s="43" t="s">
@@ -7310,7 +7544,7 @@
       <c r="C59" s="43"/>
     </row>
     <row r="60" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="29" t="s">
+      <c r="A60" s="28" t="s">
         <v>78</v>
       </c>
       <c r="B60" s="43" t="s">
@@ -7319,7 +7553,7 @@
       <c r="C60" s="43"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A61" s="29" t="s">
+      <c r="A61" s="28" t="s">
         <v>79</v>
       </c>
       <c r="B61" s="43" t="s">
@@ -7328,7 +7562,7 @@
       <c r="C61" s="43"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A62" s="29" t="s">
+      <c r="A62" s="28" t="s">
         <v>80</v>
       </c>
       <c r="B62" s="43" t="s">
@@ -7337,7 +7571,7 @@
       <c r="C62" s="43"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A63" s="29" t="s">
+      <c r="A63" s="28" t="s">
         <v>81</v>
       </c>
       <c r="B63" s="43" t="s">
@@ -7346,7 +7580,7 @@
       <c r="C63" s="43"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A64" s="29" t="s">
+      <c r="A64" s="28" t="s">
         <v>82</v>
       </c>
       <c r="B64" s="43" t="s">
@@ -7355,7 +7589,7 @@
       <c r="C64" s="43"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A65" s="29" t="s">
+      <c r="A65" s="28" t="s">
         <v>83</v>
       </c>
       <c r="B65" s="43" t="s">
@@ -7364,7 +7598,7 @@
       <c r="C65" s="43"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A66" s="29" t="s">
+      <c r="A66" s="28" t="s">
         <v>84</v>
       </c>
       <c r="B66" s="43" t="s">
@@ -7373,7 +7607,7 @@
       <c r="C66" s="43"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A67" s="29" t="s">
+      <c r="A67" s="28" t="s">
         <v>85</v>
       </c>
       <c r="B67" s="43" t="s">
@@ -7382,7 +7616,7 @@
       <c r="C67" s="43"/>
     </row>
     <row r="68" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="29" t="s">
+      <c r="A68" s="28" t="s">
         <v>86</v>
       </c>
       <c r="B68" s="43" t="s">
@@ -7391,7 +7625,7 @@
       <c r="C68" s="43"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A69" s="29" t="s">
+      <c r="A69" s="28" t="s">
         <v>87</v>
       </c>
       <c r="B69" s="43" t="s">
@@ -7400,7 +7634,7 @@
       <c r="C69" s="43"/>
     </row>
     <row r="70" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="29" t="s">
+      <c r="A70" s="28" t="s">
         <v>88</v>
       </c>
       <c r="B70" s="43" t="s">
@@ -7409,7 +7643,7 @@
       <c r="C70" s="43"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" s="29" t="s">
+      <c r="A71" s="28" t="s">
         <v>89</v>
       </c>
       <c r="B71" s="43" t="s">
@@ -7418,7 +7652,7 @@
       <c r="C71" s="43"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" s="29" t="s">
+      <c r="A72" s="28" t="s">
         <v>90</v>
       </c>
       <c r="B72" s="43" t="s">
@@ -7427,7 +7661,7 @@
       <c r="C72" s="43"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A73" s="29" t="s">
+      <c r="A73" s="28" t="s">
         <v>91</v>
       </c>
       <c r="B73" s="43" t="s">
@@ -7436,7 +7670,7 @@
       <c r="C73" s="43"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74" s="29" t="s">
+      <c r="A74" s="28" t="s">
         <v>92</v>
       </c>
       <c r="B74" s="43" t="s">
@@ -7445,7 +7679,7 @@
       <c r="C74" s="43"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" s="29" t="s">
+      <c r="A75" s="28" t="s">
         <v>93</v>
       </c>
       <c r="B75" s="43" t="s">
@@ -7454,7 +7688,7 @@
       <c r="C75" s="43"/>
     </row>
     <row r="76" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="29" t="s">
+      <c r="A76" s="28" t="s">
         <v>94</v>
       </c>
       <c r="B76" s="43" t="s">
@@ -7463,7 +7697,7 @@
       <c r="C76" s="43"/>
     </row>
     <row r="77" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="29" t="s">
+      <c r="A77" s="28" t="s">
         <v>4</v>
       </c>
       <c r="B77" s="43" t="s">
@@ -7525,13 +7759,13 @@
       </c>
     </row>
     <row r="86" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="A86" s="31" t="s">
+      <c r="A86" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="B86" s="32" t="s">
+      <c r="B86" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="C86" s="28" t="s">
+      <c r="C86" s="27" t="s">
         <v>6</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -7560,19 +7794,19 @@
       </c>
     </row>
     <row r="87" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="A87" s="31" t="s">
+      <c r="A87" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B87" s="30" t="s">
+      <c r="B87" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C87" s="30" t="s">
+      <c r="C87" s="29" t="s">
         <v>180</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E87" s="29" t="s">
+      <c r="E87" s="28" t="s">
         <v>99</v>
       </c>
       <c r="F87" s="2" t="s">
@@ -7595,16 +7829,16 @@
       </c>
     </row>
     <row r="88" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="A88" s="29" t="s">
+      <c r="A88" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="B88" s="30" t="s">
+      <c r="B88" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C88" s="30" t="s">
+      <c r="C88" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="E88" s="29" t="s">
+      <c r="E88" s="28" t="s">
         <v>98</v>
       </c>
       <c r="G88" s="2" t="s">
@@ -7624,13 +7858,13 @@
       </c>
     </row>
     <row r="89" spans="1:11" ht="16" x14ac:dyDescent="0.15">
-      <c r="A89" s="29" t="s">
+      <c r="A89" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="B89" s="30" t="s">
+      <c r="B89" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C89" s="30" t="s">
+      <c r="C89" s="29" t="s">
         <v>23</v>
       </c>
       <c r="E89" s="2" t="s">
@@ -7645,21 +7879,21 @@
       <c r="I89" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J89" s="33" t="s">
+      <c r="J89" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="K89" s="36" t="s">
+      <c r="K89" s="35" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="16" x14ac:dyDescent="0.15">
-      <c r="A90" s="31" t="s">
+      <c r="A90" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B90" s="30" t="s">
+      <c r="B90" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="C90" s="30" t="s">
+      <c r="C90" s="29" t="s">
         <v>24</v>
       </c>
       <c r="E90" s="2" t="s">
@@ -7674,18 +7908,18 @@
       <c r="I90" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="K90" s="36" t="s">
+      <c r="K90" s="35" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="A91" s="31" t="s">
+      <c r="A91" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B91" s="30" t="s">
+      <c r="B91" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C91" s="30" t="s">
+      <c r="C91" s="29" t="s">
         <v>25</v>
       </c>
       <c r="E91" s="2" t="s">
@@ -7697,18 +7931,18 @@
       <c r="I91" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="K91" s="36" t="s">
+      <c r="K91" s="35" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="16" x14ac:dyDescent="0.15">
-      <c r="A92" s="31" t="s">
+      <c r="A92" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B92" s="30" t="s">
+      <c r="B92" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C92" s="30" t="s">
+      <c r="C92" s="29" t="s">
         <v>171</v>
       </c>
       <c r="E92" s="2" t="s">
@@ -7717,15 +7951,15 @@
       <c r="I92" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K92" s="36" t="s">
+      <c r="K92" s="35" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="A93" s="31" t="s">
+      <c r="A93" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C93" s="30" t="s">
+      <c r="C93" s="29" t="s">
         <v>27</v>
       </c>
       <c r="E93" s="2" t="s">
@@ -7736,10 +7970,10 @@
       </c>
     </row>
     <row r="94" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="A94" s="29" t="s">
+      <c r="A94" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="C94" s="30" t="s">
+      <c r="C94" s="29" t="s">
         <v>181</v>
       </c>
       <c r="E94" s="2" t="s">
@@ -7747,10 +7981,10 @@
       </c>
     </row>
     <row r="95" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="A95" s="31" t="s">
+      <c r="A95" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C95" s="30" t="s">
+      <c r="C95" s="29" t="s">
         <v>26</v>
       </c>
       <c r="E95" s="2" t="s">
@@ -7758,7 +7992,7 @@
       </c>
     </row>
     <row r="96" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="C96" s="30" t="s">
+      <c r="C96" s="29" t="s">
         <v>96</v>
       </c>
       <c r="E96" s="2" t="s">
@@ -7766,42 +8000,42 @@
       </c>
     </row>
     <row r="97" spans="3:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="C97" s="30" t="s">
+      <c r="C97" s="29" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="98" spans="3:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="C98" s="30" t="s">
+      <c r="C98" s="29" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="99" spans="3:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="C99" s="30" t="s">
+      <c r="C99" s="29" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C100" s="35" t="s">
+      <c r="C100" s="34" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C101" s="33" t="s">
+      <c r="C101" s="32" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="102" spans="3:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="C102" s="34" t="s">
+      <c r="C102" s="33" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="103" spans="3:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="C103" s="34" t="s">
+      <c r="C103" s="33" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="104" spans="3:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="C104" s="30" t="s">
+      <c r="C104" s="29" t="s">
         <v>184</v>
       </c>
     </row>
@@ -7822,12 +8056,51 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -7840,51 +8113,12 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
